--- a/qa/tmp/【SQA质量月报】福州软件部202010.xlsx
+++ b/qa/tmp/【SQA质量月报】福州软件部202010.xlsx
@@ -352,10 +352,12 @@
     <t>总遗留bug数</t>
   </si>
   <si>
-    <t>233(132/101)</t>
-  </si>
-  <si>
-    <t>235(120/115)</t>
+    <t>233
+(132/101)</t>
+  </si>
+  <si>
+    <t>235
+(120/115)</t>
   </si>
   <si>
     <t>设计类缺陷总数</t>
@@ -6592,12 +6594,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="80">
     <font>
@@ -7006,28 +7008,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7055,10 +7043,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7078,74 +7144,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7322,7 +7324,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7334,13 +7378,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7352,31 +7426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7388,73 +7450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7466,7 +7468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7963,65 +7965,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF4472C4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8051,6 +7999,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8059,10 +8061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="35" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8071,148 +8073,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="46" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="39" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="76" fillId="38" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="39" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="38" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="41" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="36" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8223,10 +8225,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8728,20 +8730,20 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="20" applyFont="1"/>
-    <xf numFmtId="177" fontId="34" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="18" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="34" fillId="18" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="34" fillId="18" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="34" fillId="18" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="19" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="34" fillId="19" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="19" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8967,14 +8969,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="6" borderId="36" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9053,10 +9061,10 @@
     <xf numFmtId="0" fontId="50" fillId="6" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="6" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9071,13 +9079,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9651,206 +9659,206 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.15" customHeight="1" spans="1:4">
-      <c r="A1" s="299" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
+      <c r="A1" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="300" t="s">
+      <c r="B2" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="300" t="s">
+      <c r="C2" s="302" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="301" t="s">
+      <c r="D2" s="303" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="302">
+      <c r="A3" s="304">
         <v>1</v>
       </c>
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="303"/>
-      <c r="D3" s="304"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="306"/>
     </row>
     <row r="4" ht="49.5" outlineLevel="1" spans="1:4">
-      <c r="A4" s="305"/>
-      <c r="B4" s="306" t="s">
+      <c r="A4" s="307"/>
+      <c r="B4" s="308" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="307" t="s">
+      <c r="C4" s="309" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="304" t="s">
+      <c r="D4" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
-      <c r="A5" s="302">
+      <c r="A5" s="304">
         <v>2</v>
       </c>
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="305" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="303"/>
-      <c r="D5" s="304"/>
+      <c r="C5" s="305"/>
+      <c r="D5" s="306"/>
     </row>
     <row r="6" ht="19.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A6" s="305"/>
-      <c r="B6" s="308" t="s">
+      <c r="A6" s="307"/>
+      <c r="B6" s="310" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="309" t="s">
+      <c r="C6" s="311" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="304" t="s">
+      <c r="D6" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="302">
+      <c r="A7" s="304">
         <v>3</v>
       </c>
-      <c r="B7" s="303" t="s">
+      <c r="B7" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="303"/>
-      <c r="D7" s="304"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="306"/>
     </row>
     <row r="8" outlineLevel="1" spans="2:4">
-      <c r="B8" s="310" t="s">
+      <c r="B8" s="312" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="304" t="s">
+      <c r="D8" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" outlineLevel="1" spans="2:4">
-      <c r="B9" s="310" t="s">
+      <c r="B9" s="312" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="304" t="s">
+      <c r="D9" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" outlineLevel="1" spans="2:4">
-      <c r="B10" s="310" t="s">
+      <c r="B10" s="312" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="304" t="s">
+      <c r="D10" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" outlineLevel="1" spans="2:4">
-      <c r="B11" s="310" t="s">
+      <c r="B11" s="312" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="304" t="s">
+      <c r="D11" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" outlineLevel="1" spans="2:4">
-      <c r="B12" s="310" t="s">
+      <c r="B12" s="312" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="304" t="s">
+      <c r="D12" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="308" t="s">
+      <c r="B13" s="310" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="304" t="s">
+      <c r="D13" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="26.1" customHeight="1" outlineLevel="1" spans="2:4">
-      <c r="B14" s="308" t="s">
+      <c r="B14" s="310" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="304" t="s">
+      <c r="D14" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="308" t="s">
+      <c r="B15" s="310" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="304" t="s">
+      <c r="D15" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="308" t="s">
+      <c r="B16" s="310" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="304" t="s">
+      <c r="D16" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="308" t="s">
+      <c r="B17" s="310" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="304" t="s">
+      <c r="D17" s="306" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="302">
+      <c r="A18" s="304">
         <v>4</v>
       </c>
-      <c r="B18" s="303" t="s">
+      <c r="B18" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="303"/>
-      <c r="D18" s="304"/>
+      <c r="C18" s="305"/>
+      <c r="D18" s="306"/>
     </row>
     <row r="19" ht="33" spans="2:3">
-      <c r="B19" s="310" t="s">
+      <c r="B19" s="312" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="311" t="s">
+      <c r="C19" s="313" t="s">
         <v>35</v>
       </c>
     </row>
@@ -20630,7 +20638,7 @@
       <c r="D56" s="49" t="s">
         <v>2058</v>
       </c>
-      <c r="E56" s="312" t="s">
+      <c r="E56" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="F56" s="49" t="str">
@@ -20711,13 +20719,13 @@
       <c r="B57" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="C57" s="312" t="s">
+      <c r="C57" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="D57" s="49" t="s">
         <v>2058</v>
       </c>
-      <c r="E57" s="312" t="s">
+      <c r="E57" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="F57" s="49" t="str">
@@ -20798,7 +20806,7 @@
       <c r="B58" s="37" t="s">
         <v>2054</v>
       </c>
-      <c r="C58" s="312" t="s">
+      <c r="C58" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="D58" s="49">
@@ -20978,7 +20986,7 @@
       <c r="D60" s="49" t="s">
         <v>2058</v>
       </c>
-      <c r="E60" s="312" t="s">
+      <c r="E60" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="F60" s="49" t="str">
@@ -21059,13 +21067,13 @@
       <c r="B61" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="C61" s="312" t="s">
+      <c r="C61" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="D61" s="49" t="s">
         <v>2058</v>
       </c>
-      <c r="E61" s="312" t="s">
+      <c r="E61" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="F61" s="49" t="str">
@@ -21146,7 +21154,7 @@
       <c r="B62" s="37" t="s">
         <v>2054</v>
       </c>
-      <c r="C62" s="312" t="s">
+      <c r="C62" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="D62" s="49">
@@ -21328,7 +21336,7 @@
         <f>IFERROR(#REF!/(#REF!+#REF!),"-")</f>
         <v>-</v>
       </c>
-      <c r="E64" s="312" t="s">
+      <c r="E64" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="F64" s="49" t="str">
@@ -21409,14 +21417,14 @@
       <c r="B65" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C65" s="312" t="s">
+      <c r="C65" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="D65" s="49" t="str">
         <f>IFERROR(#REF!/(#REF!+#REF!),"-")</f>
         <v>-</v>
       </c>
-      <c r="E65" s="312" t="s">
+      <c r="E65" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="F65" s="49" t="str">
@@ -21497,7 +21505,7 @@
       <c r="B66" s="37" t="s">
         <v>2054</v>
       </c>
-      <c r="C66" s="312" t="s">
+      <c r="C66" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="D66" s="49" t="str">
@@ -21756,10 +21764,10 @@
       <c r="B69" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="C69" s="312" t="s">
+      <c r="C69" s="314" t="s">
         <v>2065</v>
       </c>
-      <c r="D69" s="312" t="s">
+      <c r="D69" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="E69" s="49">
@@ -21839,10 +21847,10 @@
       <c r="B70" s="37" t="s">
         <v>2054</v>
       </c>
-      <c r="C70" s="312" t="s">
+      <c r="C70" s="314" t="s">
         <v>2065</v>
       </c>
-      <c r="D70" s="312" t="s">
+      <c r="D70" s="314" t="s">
         <v>2065</v>
       </c>
       <c r="E70" s="49">
@@ -22089,10 +22097,10 @@
       <c r="B73" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="C73" s="313" t="s">
+      <c r="C73" s="315" t="s">
         <v>2065</v>
       </c>
-      <c r="D73" s="313" t="s">
+      <c r="D73" s="315" t="s">
         <v>2065</v>
       </c>
       <c r="E73" s="124">
@@ -22172,10 +22180,10 @@
       <c r="B74" s="37" t="s">
         <v>2054</v>
       </c>
-      <c r="C74" s="313" t="s">
+      <c r="C74" s="315" t="s">
         <v>2065</v>
       </c>
-      <c r="D74" s="313" t="s">
+      <c r="D74" s="315" t="s">
         <v>2065</v>
       </c>
       <c r="E74" s="124">
@@ -22302,8 +22310,8 @@
   </sheetPr>
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.5"/>
@@ -22357,8 +22365,8 @@
       <c r="K2" s="227"/>
       <c r="L2" s="227"/>
       <c r="M2" s="227"/>
-      <c r="N2" s="265"/>
-      <c r="O2" s="265"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
     </row>
     <row r="3" s="182" customFormat="1" ht="23.1" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A3" s="229" t="s">
@@ -22447,7 +22455,7 @@
       </c>
       <c r="O4" s="217"/>
     </row>
-    <row r="5" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
+    <row r="5" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A5" s="234" t="s">
         <v>55</v>
       </c>
@@ -22475,7 +22483,7 @@
       <c r="I5" s="233">
         <v>4</v>
       </c>
-      <c r="J5" s="266"/>
+      <c r="J5" s="268"/>
       <c r="K5" s="233">
         <v>4</v>
       </c>
@@ -22489,9 +22497,9 @@
       <c r="N5" s="238">
         <v>40</v>
       </c>
-      <c r="O5" s="267"/>
-    </row>
-    <row r="6" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O5" s="269"/>
+    </row>
+    <row r="6" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A6" s="239"/>
       <c r="B6" s="240"/>
       <c r="C6" s="241" t="s">
@@ -22509,7 +22517,7 @@
       <c r="I6" s="233">
         <v>4</v>
       </c>
-      <c r="J6" s="268"/>
+      <c r="J6" s="270"/>
       <c r="K6" s="233"/>
       <c r="L6" s="238">
         <v>21</v>
@@ -22520,9 +22528,9 @@
       <c r="N6" s="233">
         <v>21</v>
       </c>
-      <c r="O6" s="267"/>
-    </row>
-    <row r="7" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O6" s="269"/>
+    </row>
+    <row r="7" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A7" s="239"/>
       <c r="B7" s="240"/>
       <c r="C7" s="243" t="s">
@@ -22540,7 +22548,7 @@
       <c r="I7" s="233">
         <v>0</v>
       </c>
-      <c r="J7" s="268"/>
+      <c r="J7" s="270"/>
       <c r="K7" s="233"/>
       <c r="L7" s="233">
         <v>8</v>
@@ -22551,7 +22559,7 @@
       <c r="N7" s="233">
         <v>6</v>
       </c>
-      <c r="O7" s="267"/>
+      <c r="O7" s="269"/>
     </row>
     <row r="8" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A8" s="239"/>
@@ -22579,7 +22587,7 @@
       <c r="I8" s="245">
         <v>0.5312</v>
       </c>
-      <c r="J8" s="269"/>
+      <c r="J8" s="271"/>
       <c r="K8" s="245">
         <v>0.4745</v>
       </c>
@@ -22592,7 +22600,7 @@
       <c r="N8" s="245">
         <v>0.5469</v>
       </c>
-      <c r="O8" s="267"/>
+      <c r="O8" s="269"/>
     </row>
     <row r="9" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A9" s="239"/>
@@ -22609,21 +22617,21 @@
       <c r="H9" s="245">
         <v>0.6521</v>
       </c>
-      <c r="I9" s="270">
+      <c r="I9" s="272">
         <v>0.5238</v>
       </c>
-      <c r="J9" s="269"/>
+      <c r="J9" s="271"/>
       <c r="K9" s="245"/>
       <c r="L9" s="245">
         <v>0.6101</v>
       </c>
-      <c r="M9" s="270">
+      <c r="M9" s="272">
         <v>0.5238</v>
       </c>
-      <c r="N9" s="270">
+      <c r="N9" s="272">
         <v>0.5943</v>
       </c>
-      <c r="O9" s="267"/>
+      <c r="O9" s="269"/>
     </row>
     <row r="10" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A10" s="239"/>
@@ -22640,21 +22648,21 @@
       <c r="H10" s="245">
         <v>0.3658</v>
       </c>
-      <c r="I10" s="270">
+      <c r="I10" s="272">
         <v>0.5454</v>
       </c>
-      <c r="J10" s="269"/>
+      <c r="J10" s="271"/>
       <c r="K10" s="245"/>
       <c r="L10" s="245">
         <v>0.4661</v>
       </c>
-      <c r="M10" s="270">
+      <c r="M10" s="272">
         <v>0.5454</v>
       </c>
-      <c r="N10" s="270">
+      <c r="N10" s="272">
         <v>0.4301</v>
       </c>
-      <c r="O10" s="267"/>
+      <c r="O10" s="269"/>
     </row>
     <row r="11" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A11" s="239"/>
@@ -22680,7 +22688,7 @@
       <c r="I11" s="233">
         <v>17</v>
       </c>
-      <c r="J11" s="266"/>
+      <c r="J11" s="268"/>
       <c r="K11" s="233">
         <v>28</v>
       </c>
@@ -22694,7 +22702,7 @@
       <c r="N11" s="233">
         <v>148</v>
       </c>
-      <c r="O11" s="271"/>
+      <c r="O11" s="273"/>
     </row>
     <row r="12" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A12" s="239"/>
@@ -22714,7 +22722,7 @@
       <c r="I12" s="233">
         <v>11</v>
       </c>
-      <c r="J12" s="268"/>
+      <c r="J12" s="270"/>
       <c r="K12" s="233"/>
       <c r="L12" s="233">
         <v>48</v>
@@ -22725,7 +22733,7 @@
       <c r="N12" s="233">
         <v>66</v>
       </c>
-      <c r="O12" s="267"/>
+      <c r="O12" s="269"/>
     </row>
     <row r="13" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A13" s="239"/>
@@ -22745,7 +22753,7 @@
       <c r="I13" s="233">
         <v>6</v>
       </c>
-      <c r="J13" s="268"/>
+      <c r="J13" s="270"/>
       <c r="K13" s="233"/>
       <c r="L13" s="233">
         <v>23</v>
@@ -22756,7 +22764,7 @@
       <c r="N13" s="233">
         <v>21</v>
       </c>
-      <c r="O13" s="267"/>
+      <c r="O13" s="269"/>
     </row>
     <row r="14" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A14" s="239"/>
@@ -22782,7 +22790,7 @@
       <c r="I14" s="233">
         <v>-66.9</v>
       </c>
-      <c r="J14" s="266"/>
+      <c r="J14" s="268"/>
       <c r="K14" s="233">
         <v>-382.13</v>
       </c>
@@ -22795,7 +22803,7 @@
       <c r="N14" s="233">
         <v>-5.96</v>
       </c>
-      <c r="O14" s="271"/>
+      <c r="O14" s="273"/>
     </row>
     <row r="15" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A15" s="239"/>
@@ -22815,7 +22823,7 @@
       <c r="I15" s="233">
         <v>-694.17</v>
       </c>
-      <c r="J15" s="268"/>
+      <c r="J15" s="270"/>
       <c r="K15" s="247"/>
       <c r="L15" s="233">
         <v>-218.45</v>
@@ -22826,7 +22834,7 @@
       <c r="N15" s="233">
         <v>-266.27</v>
       </c>
-      <c r="O15" s="267"/>
+      <c r="O15" s="269"/>
     </row>
     <row r="16" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A16" s="239"/>
@@ -22846,7 +22854,7 @@
       <c r="I16" s="233">
         <v>-1446.57</v>
       </c>
-      <c r="J16" s="268"/>
+      <c r="J16" s="270"/>
       <c r="K16" s="247"/>
       <c r="L16" s="233">
         <v>-1317.83</v>
@@ -22857,7 +22865,7 @@
       <c r="N16" s="233">
         <v>-1259.93</v>
       </c>
-      <c r="O16" s="267"/>
+      <c r="O16" s="269"/>
     </row>
     <row r="17" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A17" s="239"/>
@@ -22883,7 +22891,7 @@
       <c r="I17" s="233">
         <v>15</v>
       </c>
-      <c r="J17" s="266"/>
+      <c r="J17" s="268"/>
       <c r="K17" s="233">
         <v>31</v>
       </c>
@@ -22897,7 +22905,7 @@
       <c r="N17" s="233">
         <v>135</v>
       </c>
-      <c r="O17" s="267"/>
+      <c r="O17" s="269"/>
     </row>
     <row r="18" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A18" s="239"/>
@@ -22917,7 +22925,7 @@
       <c r="I18" s="233">
         <v>10</v>
       </c>
-      <c r="J18" s="266"/>
+      <c r="J18" s="268"/>
       <c r="K18" s="233"/>
       <c r="L18" s="233">
         <v>35</v>
@@ -22928,7 +22936,7 @@
       <c r="N18" s="233">
         <v>37</v>
       </c>
-      <c r="O18" s="267"/>
+      <c r="O18" s="269"/>
     </row>
     <row r="19" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A19" s="239"/>
@@ -22948,7 +22956,7 @@
       <c r="I19" s="233">
         <v>5</v>
       </c>
-      <c r="J19" s="266"/>
+      <c r="J19" s="268"/>
       <c r="K19" s="233"/>
       <c r="L19" s="233">
         <v>31</v>
@@ -22959,7 +22967,7 @@
       <c r="N19" s="233">
         <v>28</v>
       </c>
-      <c r="O19" s="267"/>
+      <c r="O19" s="269"/>
     </row>
     <row r="20" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A20" s="239"/>
@@ -22985,7 +22993,7 @@
       <c r="I20" s="233">
         <v>1.76</v>
       </c>
-      <c r="J20" s="266"/>
+      <c r="J20" s="268"/>
       <c r="K20" s="249">
         <v>3.31</v>
       </c>
@@ -22998,7 +23006,7 @@
       <c r="N20" s="233">
         <v>1.53</v>
       </c>
-      <c r="O20" s="267"/>
+      <c r="O20" s="269"/>
     </row>
     <row r="21" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A21" s="239"/>
@@ -23018,7 +23026,7 @@
       <c r="I21" s="233">
         <v>2.71</v>
       </c>
-      <c r="J21" s="266"/>
+      <c r="J21" s="268"/>
       <c r="K21" s="233"/>
       <c r="L21" s="233">
         <v>1.27</v>
@@ -23029,7 +23037,7 @@
       <c r="N21" s="233">
         <v>1.4</v>
       </c>
-      <c r="O21" s="267"/>
+      <c r="O21" s="269"/>
     </row>
     <row r="22" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A22" s="239"/>
@@ -23049,7 +23057,7 @@
       <c r="I22" s="233">
         <v>0.95</v>
       </c>
-      <c r="J22" s="266"/>
+      <c r="J22" s="268"/>
       <c r="K22" s="233"/>
       <c r="L22" s="233">
         <v>2.02</v>
@@ -23060,7 +23068,7 @@
       <c r="N22" s="233">
         <v>1.84</v>
       </c>
-      <c r="O22" s="267"/>
+      <c r="O22" s="269"/>
     </row>
     <row r="23" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A23" s="239"/>
@@ -23093,7 +23101,7 @@
         <f t="shared" ref="I23:I25" si="2">I5/IF((I5+I32)=0,1,(I5+I32))</f>
         <v>0.0235294117647059</v>
       </c>
-      <c r="J23" s="272"/>
+      <c r="J23" s="274"/>
       <c r="K23" s="253">
         <f t="shared" ref="K23:L25" si="3">K5/IF((K5+K32)=0,1,(K5+K32))</f>
         <v>0.0240963855421687</v>
@@ -23110,7 +23118,7 @@
         <f t="shared" ref="N23:N25" si="5">N5/IF((N5+N32)=0,1,(N5+N32))</f>
         <v>0.0420609884332282</v>
       </c>
-      <c r="O23" s="267"/>
+      <c r="O23" s="269"/>
     </row>
     <row r="24" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A24" s="239"/>
@@ -23139,7 +23147,7 @@
         <f t="shared" si="2"/>
         <v>0.0317460317460317</v>
       </c>
-      <c r="J24" s="268"/>
+      <c r="J24" s="270"/>
       <c r="K24" s="253">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -23156,7 +23164,7 @@
         <f t="shared" si="5"/>
         <v>0.0690789473684211</v>
       </c>
-      <c r="O24" s="267"/>
+      <c r="O24" s="269"/>
     </row>
     <row r="25" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A25" s="239"/>
@@ -23185,7 +23193,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="268"/>
+      <c r="J25" s="270"/>
       <c r="K25" s="253">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -23202,7 +23210,7 @@
         <f t="shared" si="5"/>
         <v>0.0232558139534884</v>
       </c>
-      <c r="O25" s="267"/>
+      <c r="O25" s="269"/>
     </row>
     <row r="26" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A26" s="239"/>
@@ -23228,7 +23236,7 @@
       <c r="I26" s="233">
         <v>6</v>
       </c>
-      <c r="J26" s="266"/>
+      <c r="J26" s="268"/>
       <c r="K26" s="233">
         <v>6</v>
       </c>
@@ -23242,7 +23250,7 @@
       <c r="N26" s="233">
         <v>26</v>
       </c>
-      <c r="O26" s="267"/>
+      <c r="O26" s="269"/>
     </row>
     <row r="27" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A27" s="239"/>
@@ -23262,7 +23270,7 @@
       <c r="I27" s="233">
         <v>6</v>
       </c>
-      <c r="J27" s="268"/>
+      <c r="J27" s="270"/>
       <c r="K27" s="233"/>
       <c r="L27" s="233">
         <v>11</v>
@@ -23273,7 +23281,7 @@
       <c r="N27" s="233">
         <v>12</v>
       </c>
-      <c r="O27" s="267"/>
+      <c r="O27" s="269"/>
     </row>
     <row r="28" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A28" s="239"/>
@@ -23293,7 +23301,7 @@
       <c r="I28" s="233">
         <v>0</v>
       </c>
-      <c r="J28" s="268"/>
+      <c r="J28" s="270"/>
       <c r="K28" s="233"/>
       <c r="L28" s="233">
         <v>1</v>
@@ -23304,7 +23312,7 @@
       <c r="N28" s="233">
         <v>1</v>
       </c>
-      <c r="O28" s="267"/>
+      <c r="O28" s="269"/>
     </row>
     <row r="29" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A29" s="239"/>
@@ -23330,7 +23338,7 @@
       <c r="I29" s="233">
         <v>7</v>
       </c>
-      <c r="J29" s="266"/>
+      <c r="J29" s="268"/>
       <c r="K29" s="233">
         <v>3</v>
       </c>
@@ -23344,7 +23352,7 @@
       <c r="N29" s="233">
         <v>25</v>
       </c>
-      <c r="O29" s="267"/>
+      <c r="O29" s="269"/>
     </row>
     <row r="30" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A30" s="239"/>
@@ -23364,7 +23372,7 @@
       <c r="I30" s="233">
         <v>0</v>
       </c>
-      <c r="J30" s="266"/>
+      <c r="J30" s="268"/>
       <c r="K30" s="233"/>
       <c r="L30" s="233">
         <v>8</v>
@@ -23375,7 +23383,7 @@
       <c r="N30" s="233">
         <v>1</v>
       </c>
-      <c r="O30" s="267"/>
+      <c r="O30" s="269"/>
     </row>
     <row r="31" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A31" s="239"/>
@@ -23395,7 +23403,7 @@
       <c r="I31" s="233">
         <v>7</v>
       </c>
-      <c r="J31" s="266"/>
+      <c r="J31" s="268"/>
       <c r="K31" s="233"/>
       <c r="L31" s="233">
         <v>11</v>
@@ -23406,7 +23414,7 @@
       <c r="N31" s="233">
         <v>18</v>
       </c>
-      <c r="O31" s="267"/>
+      <c r="O31" s="269"/>
     </row>
     <row r="32" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A32" s="239"/>
@@ -23432,7 +23440,7 @@
       <c r="I32" s="233">
         <v>166</v>
       </c>
-      <c r="J32" s="266"/>
+      <c r="J32" s="268"/>
       <c r="K32" s="233">
         <v>162</v>
       </c>
@@ -23446,7 +23454,7 @@
       <c r="N32" s="233">
         <v>911</v>
       </c>
-      <c r="O32" s="267"/>
+      <c r="O32" s="269"/>
     </row>
     <row r="33" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A33" s="239"/>
@@ -23466,7 +23474,7 @@
       <c r="I33" s="233">
         <v>122</v>
       </c>
-      <c r="J33" s="268"/>
+      <c r="J33" s="270"/>
       <c r="K33" s="233"/>
       <c r="L33" s="233">
         <v>216</v>
@@ -23477,7 +23485,7 @@
       <c r="N33" s="233">
         <v>283</v>
       </c>
-      <c r="O33" s="267"/>
+      <c r="O33" s="269"/>
     </row>
     <row r="34" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A34" s="239"/>
@@ -23497,7 +23505,7 @@
       <c r="I34" s="233">
         <v>44</v>
       </c>
-      <c r="J34" s="268"/>
+      <c r="J34" s="270"/>
       <c r="K34" s="233"/>
       <c r="L34" s="233">
         <v>163</v>
@@ -23508,9 +23516,9 @@
       <c r="N34" s="233">
         <v>252</v>
       </c>
-      <c r="O34" s="267"/>
-    </row>
-    <row r="35" s="182" customFormat="1" ht="21" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
+      <c r="O34" s="269"/>
+    </row>
+    <row r="35" s="182" customFormat="1" ht="35" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A35" s="239"/>
       <c r="B35" s="251"/>
       <c r="C35" s="252" t="s">
@@ -23528,28 +23536,28 @@
       <c r="G35" s="238">
         <v>219</v>
       </c>
-      <c r="H35" s="249" t="s">
+      <c r="H35" s="256" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="249" t="s">
+      <c r="I35" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="J35" s="266"/>
+      <c r="J35" s="268"/>
       <c r="K35" s="233">
         <v>177</v>
       </c>
-      <c r="L35" s="249" t="s">
+      <c r="L35" s="256" t="s">
         <v>75</v>
       </c>
-      <c r="M35" s="249" t="s">
+      <c r="M35" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="N35" s="249" t="s">
+      <c r="N35" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="271"/>
-    </row>
-    <row r="36" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O35" s="273"/>
+    </row>
+    <row r="36" s="182" customFormat="1" hidden="1" outlineLevel="2" spans="1:15">
       <c r="A36" s="239"/>
       <c r="B36" s="251"/>
       <c r="C36" s="241" t="s">
@@ -23567,7 +23575,7 @@
       <c r="I36" s="233">
         <v>104</v>
       </c>
-      <c r="J36" s="268"/>
+      <c r="J36" s="270"/>
       <c r="K36" s="233"/>
       <c r="L36" s="233">
         <v>75</v>
@@ -23578,9 +23586,9 @@
       <c r="N36" s="233">
         <v>104</v>
       </c>
-      <c r="O36" s="273"/>
-    </row>
-    <row r="37" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O36" s="275"/>
+    </row>
+    <row r="37" s="182" customFormat="1" hidden="1" outlineLevel="2" spans="1:15">
       <c r="A37" s="239"/>
       <c r="B37" s="251"/>
       <c r="C37" s="243" t="s">
@@ -23598,7 +23606,7 @@
       <c r="I37" s="233">
         <v>131</v>
       </c>
-      <c r="J37" s="268"/>
+      <c r="J37" s="270"/>
       <c r="K37" s="233"/>
       <c r="L37" s="233">
         <v>158</v>
@@ -23609,7 +23617,7 @@
       <c r="N37" s="233">
         <v>131</v>
       </c>
-      <c r="O37" s="273"/>
+      <c r="O37" s="275"/>
     </row>
     <row r="38" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A38" s="239"/>
@@ -23635,7 +23643,7 @@
       <c r="I38" s="233">
         <v>4</v>
       </c>
-      <c r="J38" s="266"/>
+      <c r="J38" s="268"/>
       <c r="K38" s="233">
         <v>2</v>
       </c>
@@ -23649,7 +23657,7 @@
       <c r="N38" s="233">
         <v>25</v>
       </c>
-      <c r="O38" s="267"/>
+      <c r="O38" s="269"/>
     </row>
     <row r="39" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A39" s="239"/>
@@ -23669,7 +23677,7 @@
       <c r="I39" s="233">
         <v>2</v>
       </c>
-      <c r="J39" s="268"/>
+      <c r="J39" s="270"/>
       <c r="K39" s="233"/>
       <c r="L39" s="233">
         <v>8</v>
@@ -23680,7 +23688,7 @@
       <c r="N39" s="233">
         <v>4</v>
       </c>
-      <c r="O39" s="267"/>
+      <c r="O39" s="269"/>
     </row>
     <row r="40" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A40" s="239"/>
@@ -23700,7 +23708,7 @@
       <c r="I40" s="233">
         <v>2</v>
       </c>
-      <c r="J40" s="268"/>
+      <c r="J40" s="270"/>
       <c r="K40" s="233"/>
       <c r="L40" s="233">
         <v>10</v>
@@ -23711,7 +23719,7 @@
       <c r="N40" s="233">
         <v>13</v>
       </c>
-      <c r="O40" s="267"/>
+      <c r="O40" s="269"/>
     </row>
     <row r="41" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A41" s="239"/>
@@ -23738,20 +23746,20 @@
       </c>
       <c r="H41" s="254">
         <f t="shared" ref="H41:H46" si="9">H50/(IF(H47=0,1,H47))</f>
-        <v>0.80327868852459</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="I41" s="254">
         <f t="shared" ref="I41:I46" si="10">I50/(IF(I47=0,1,I47))</f>
         <v>0.622641509433962</v>
       </c>
-      <c r="J41" s="272"/>
+      <c r="J41" s="274"/>
       <c r="K41" s="254">
         <f t="shared" ref="K41:K46" si="11">K50/(IF(K47=0,1,K47))</f>
         <v>0.285714285714286</v>
       </c>
       <c r="L41" s="254">
         <f t="shared" ref="L41:L46" si="12">L50/(IF(L47=0,1,L47))</f>
-        <v>0.545</v>
+        <v>0.517587939698492</v>
       </c>
       <c r="M41" s="254">
         <f t="shared" ref="M41:M46" si="13">M50/(IF(M47=0,1,M47))</f>
@@ -23761,7 +23769,7 @@
         <f t="shared" ref="N41:N46" si="14">N50/(IF(N47=0,1,N47))</f>
         <v>0.527777777777778</v>
       </c>
-      <c r="O41" s="271"/>
+      <c r="O41" s="273"/>
     </row>
     <row r="42" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A42" s="239"/>
@@ -23784,13 +23792,13 @@
       </c>
       <c r="H42" s="254">
         <f t="shared" si="9"/>
-        <v>0.808510638297872</v>
+        <v>0.6875</v>
       </c>
       <c r="I42" s="254">
         <f t="shared" si="10"/>
         <v>0.64</v>
       </c>
-      <c r="J42" s="268"/>
+      <c r="J42" s="270"/>
       <c r="K42" s="254">
         <f t="shared" si="11"/>
         <v>0.307692307692308</v>
@@ -23807,7 +23815,7 @@
         <f t="shared" si="14"/>
         <v>0.525</v>
       </c>
-      <c r="O42" s="267"/>
+      <c r="O42" s="269"/>
     </row>
     <row r="43" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A43" s="239"/>
@@ -23830,13 +23838,13 @@
       </c>
       <c r="H43" s="254">
         <f t="shared" si="9"/>
-        <v>0.785714285714286</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I43" s="254">
         <f t="shared" si="10"/>
         <v>0.607142857142857</v>
       </c>
-      <c r="J43" s="268"/>
+      <c r="J43" s="270"/>
       <c r="K43" s="254">
         <f t="shared" si="11"/>
         <v>0.222222222222222</v>
@@ -23853,7 +23861,7 @@
         <f t="shared" si="14"/>
         <v>0.534090909090909</v>
       </c>
-      <c r="O43" s="267"/>
+      <c r="O43" s="269"/>
     </row>
     <row r="44" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
       <c r="A44" s="239"/>
@@ -23861,37 +23869,37 @@
       <c r="C44" s="251" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="256" t="s">
+      <c r="D44" s="257" t="s">
         <v>82</v>
       </c>
       <c r="E44" s="254">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F44" s="254">
         <f t="shared" si="7"/>
-        <v>0.121951219512195</v>
+        <v>0.682926829268293</v>
       </c>
       <c r="G44" s="254">
         <f t="shared" si="8"/>
-        <v>0.0526315789473684</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="H44" s="254">
         <f t="shared" si="9"/>
-        <v>0.448979591836735</v>
+        <v>0.465116279069767</v>
       </c>
       <c r="I44" s="254">
         <f t="shared" si="10"/>
         <v>0.757575757575758</v>
       </c>
-      <c r="J44" s="266"/>
+      <c r="J44" s="268"/>
       <c r="K44" s="254">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L44" s="254">
         <f t="shared" si="12"/>
-        <v>0.256880733944954</v>
+        <v>0.563106796116505</v>
       </c>
       <c r="M44" s="254">
         <f t="shared" si="13"/>
@@ -23901,7 +23909,7 @@
         <f t="shared" si="14"/>
         <v>0.348684210526316</v>
       </c>
-      <c r="O44" s="274"/>
+      <c r="O44" s="276"/>
     </row>
     <row r="45" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A45" s="239"/>
@@ -23912,25 +23920,25 @@
       <c r="D45" s="232"/>
       <c r="E45" s="254">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F45" s="254">
         <f t="shared" si="7"/>
-        <v>0.133333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="G45" s="254">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H45" s="254">
         <f t="shared" si="9"/>
-        <v>0.526315789473684</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="I45" s="253">
         <f t="shared" si="10"/>
         <v>0.875</v>
       </c>
-      <c r="J45" s="268"/>
+      <c r="J45" s="270"/>
       <c r="K45" s="253">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -23947,7 +23955,7 @@
         <f t="shared" si="14"/>
         <v>0.361904761904762</v>
       </c>
-      <c r="O45" s="274"/>
+      <c r="O45" s="276"/>
     </row>
     <row r="46" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A46" s="239"/>
@@ -23958,25 +23966,25 @@
       <c r="D46" s="232"/>
       <c r="E46" s="254">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F46" s="254">
         <f t="shared" si="7"/>
-        <v>0.0909090909090909</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="G46" s="254">
         <f t="shared" si="8"/>
-        <v>0.166666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H46" s="254">
         <f t="shared" si="9"/>
-        <v>0.181818181818182</v>
+        <v>0.2</v>
       </c>
       <c r="I46" s="253">
         <f t="shared" si="10"/>
         <v>0.647058823529412</v>
       </c>
-      <c r="J46" s="268"/>
+      <c r="J46" s="270"/>
       <c r="K46" s="253">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -23993,39 +24001,39 @@
         <f t="shared" si="14"/>
         <v>0.319148936170213</v>
       </c>
-      <c r="O46" s="274"/>
-    </row>
-    <row r="47" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
+      <c r="O46" s="276"/>
+    </row>
+    <row r="47" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A47" s="239"/>
       <c r="B47" s="251"/>
-      <c r="C47" s="257" t="s">
+      <c r="C47" s="258" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="258" t="s">
+      <c r="D47" s="259" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="233">
+      <c r="E47" s="260">
         <v>35</v>
       </c>
-      <c r="F47" s="233">
+      <c r="F47" s="260">
         <v>78</v>
       </c>
-      <c r="G47" s="233">
+      <c r="G47" s="260">
         <v>61</v>
       </c>
-      <c r="H47" s="233">
-        <v>61</v>
+      <c r="H47" s="260">
+        <v>60</v>
       </c>
       <c r="I47" s="233">
         <v>53</v>
       </c>
-      <c r="J47" s="266"/>
+      <c r="J47" s="268"/>
       <c r="K47" s="233">
         <v>35</v>
       </c>
       <c r="L47" s="233">
         <f>SUM(F47:H47)</f>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M47" s="233">
         <v>53</v>
@@ -24033,31 +24041,31 @@
       <c r="N47" s="233">
         <v>288</v>
       </c>
-      <c r="O47" s="274"/>
-    </row>
-    <row r="48" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O47" s="276"/>
+    </row>
+    <row r="48" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A48" s="239"/>
       <c r="B48" s="251"/>
       <c r="C48" s="241" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="232"/>
-      <c r="E48" s="233">
+      <c r="E48" s="260">
         <v>26</v>
       </c>
-      <c r="F48" s="233">
+      <c r="F48" s="260">
         <v>51</v>
       </c>
-      <c r="G48" s="233">
+      <c r="G48" s="260">
         <v>51</v>
       </c>
-      <c r="H48" s="233">
-        <v>47</v>
+      <c r="H48" s="260">
+        <v>48</v>
       </c>
       <c r="I48" s="233">
         <v>25</v>
       </c>
-      <c r="J48" s="268"/>
+      <c r="J48" s="270"/>
       <c r="K48" s="233">
         <v>26</v>
       </c>
@@ -24070,31 +24078,31 @@
       <c r="N48" s="233">
         <v>200</v>
       </c>
-      <c r="O48" s="274"/>
-    </row>
-    <row r="49" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O48" s="276"/>
+    </row>
+    <row r="49" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A49" s="239"/>
       <c r="B49" s="251"/>
       <c r="C49" s="243" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="232"/>
-      <c r="E49" s="233">
+      <c r="E49" s="260">
         <v>9</v>
       </c>
-      <c r="F49" s="233">
+      <c r="F49" s="260">
         <v>27</v>
       </c>
-      <c r="G49" s="233">
+      <c r="G49" s="260">
         <v>10</v>
       </c>
-      <c r="H49" s="233">
-        <v>14</v>
+      <c r="H49" s="260">
+        <v>12</v>
       </c>
       <c r="I49" s="233">
         <v>28</v>
       </c>
-      <c r="J49" s="268"/>
+      <c r="J49" s="270"/>
       <c r="K49" s="233">
         <v>9</v>
       </c>
@@ -24107,39 +24115,39 @@
       <c r="N49" s="233">
         <v>88</v>
       </c>
-      <c r="O49" s="274"/>
-    </row>
-    <row r="50" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
+      <c r="O49" s="276"/>
+    </row>
+    <row r="50" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A50" s="239"/>
       <c r="B50" s="251"/>
-      <c r="C50" s="257" t="s">
+      <c r="C50" s="258" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="258" t="s">
+      <c r="D50" s="259" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="233">
+      <c r="E50" s="260">
         <v>10</v>
       </c>
-      <c r="F50" s="233">
+      <c r="F50" s="260">
         <v>41</v>
       </c>
-      <c r="G50" s="233">
+      <c r="G50" s="260">
         <v>19</v>
       </c>
-      <c r="H50" s="233">
-        <v>49</v>
+      <c r="H50" s="260">
+        <v>43</v>
       </c>
       <c r="I50" s="233">
         <v>33</v>
       </c>
-      <c r="J50" s="266"/>
+      <c r="J50" s="268"/>
       <c r="K50" s="233">
         <v>10</v>
       </c>
       <c r="L50" s="233">
         <f>SUM(F50:H50)</f>
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M50" s="233">
         <v>33</v>
@@ -24147,31 +24155,31 @@
       <c r="N50" s="233">
         <v>152</v>
       </c>
-      <c r="O50" s="274"/>
-    </row>
-    <row r="51" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O50" s="276"/>
+    </row>
+    <row r="51" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A51" s="239"/>
       <c r="B51" s="251"/>
       <c r="C51" s="241" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="232"/>
-      <c r="E51" s="233">
+      <c r="E51" s="260">
         <v>8</v>
       </c>
-      <c r="F51" s="233">
+      <c r="F51" s="260">
         <v>30</v>
       </c>
-      <c r="G51" s="233">
+      <c r="G51" s="260">
         <v>13</v>
       </c>
-      <c r="H51" s="233">
-        <v>38</v>
+      <c r="H51" s="260">
+        <v>33</v>
       </c>
       <c r="I51" s="233">
         <v>16</v>
       </c>
-      <c r="J51" s="268"/>
+      <c r="J51" s="270"/>
       <c r="K51" s="233">
         <v>8</v>
       </c>
@@ -24184,31 +24192,31 @@
       <c r="N51" s="233">
         <v>105</v>
       </c>
-      <c r="O51" s="274"/>
-    </row>
-    <row r="52" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O51" s="276"/>
+    </row>
+    <row r="52" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A52" s="239"/>
       <c r="B52" s="251"/>
       <c r="C52" s="243" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="232"/>
-      <c r="E52" s="233">
+      <c r="E52" s="260">
         <v>2</v>
       </c>
-      <c r="F52" s="233">
+      <c r="F52" s="260">
         <v>11</v>
       </c>
-      <c r="G52" s="233">
+      <c r="G52" s="260">
         <v>6</v>
       </c>
-      <c r="H52" s="233">
-        <v>11</v>
+      <c r="H52" s="260">
+        <v>10</v>
       </c>
       <c r="I52" s="233">
         <v>17</v>
       </c>
-      <c r="J52" s="268"/>
+      <c r="J52" s="270"/>
       <c r="K52" s="233">
         <v>2</v>
       </c>
@@ -24221,39 +24229,39 @@
       <c r="N52" s="233">
         <v>47</v>
       </c>
-      <c r="O52" s="274"/>
-    </row>
-    <row r="53" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
+      <c r="O52" s="276"/>
+    </row>
+    <row r="53" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A53" s="239"/>
       <c r="B53" s="251"/>
-      <c r="C53" s="257" t="s">
+      <c r="C53" s="258" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="258" t="s">
+      <c r="D53" s="259" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="233">
-        <v>0</v>
-      </c>
-      <c r="F53" s="233">
-        <v>5</v>
-      </c>
-      <c r="G53" s="233">
-        <v>1</v>
-      </c>
-      <c r="H53" s="233">
-        <v>22</v>
+      <c r="E53" s="260">
+        <v>2</v>
+      </c>
+      <c r="F53" s="260">
+        <v>28</v>
+      </c>
+      <c r="G53" s="260">
+        <v>10</v>
+      </c>
+      <c r="H53" s="260">
+        <v>20</v>
       </c>
       <c r="I53" s="233">
         <v>25</v>
       </c>
-      <c r="J53" s="266"/>
+      <c r="J53" s="268"/>
       <c r="K53" s="233">
         <v>0</v>
       </c>
       <c r="L53" s="233">
         <f>SUM(F53:H53)</f>
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="M53" s="233">
         <v>25</v>
@@ -24261,31 +24269,31 @@
       <c r="N53" s="233">
         <v>53</v>
       </c>
-      <c r="O53" s="274"/>
-    </row>
-    <row r="54" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O53" s="276"/>
+    </row>
+    <row r="54" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A54" s="239"/>
       <c r="B54" s="251"/>
       <c r="C54" s="241" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="232"/>
-      <c r="E54" s="233">
-        <v>0</v>
-      </c>
-      <c r="F54" s="233">
-        <v>4</v>
-      </c>
-      <c r="G54" s="233">
-        <v>0</v>
-      </c>
-      <c r="H54" s="233">
-        <v>20</v>
+      <c r="E54" s="260">
+        <v>1</v>
+      </c>
+      <c r="F54" s="260">
+        <v>21</v>
+      </c>
+      <c r="G54" s="260">
+        <v>6</v>
+      </c>
+      <c r="H54" s="260">
+        <v>18</v>
       </c>
       <c r="I54" s="233">
         <v>14</v>
       </c>
-      <c r="J54" s="268"/>
+      <c r="J54" s="270"/>
       <c r="K54" s="233">
         <v>0</v>
       </c>
@@ -24298,31 +24306,31 @@
       <c r="N54" s="233">
         <v>38</v>
       </c>
-      <c r="O54" s="274"/>
-    </row>
-    <row r="55" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O54" s="276"/>
+    </row>
+    <row r="55" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A55" s="239"/>
       <c r="B55" s="251"/>
       <c r="C55" s="243" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="232"/>
-      <c r="E55" s="233">
-        <v>0</v>
-      </c>
-      <c r="F55" s="233">
+      <c r="E55" s="260">
         <v>1</v>
       </c>
-      <c r="G55" s="233">
-        <v>1</v>
-      </c>
-      <c r="H55" s="233">
+      <c r="F55" s="260">
+        <v>7</v>
+      </c>
+      <c r="G55" s="260">
+        <v>4</v>
+      </c>
+      <c r="H55" s="260">
         <v>2</v>
       </c>
       <c r="I55" s="233">
         <v>11</v>
       </c>
-      <c r="J55" s="268"/>
+      <c r="J55" s="270"/>
       <c r="K55" s="233">
         <v>0</v>
       </c>
@@ -24335,15 +24343,15 @@
       <c r="N55" s="233">
         <v>15</v>
       </c>
-      <c r="O55" s="274"/>
-    </row>
-    <row r="56" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
+      <c r="O55" s="276"/>
+    </row>
+    <row r="56" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A56" s="239"/>
       <c r="B56" s="251"/>
-      <c r="C56" s="257" t="s">
+      <c r="C56" s="258" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="258" t="s">
+      <c r="D56" s="259" t="s">
         <v>64</v>
       </c>
       <c r="E56" s="233">
@@ -24360,20 +24368,20 @@
       </c>
       <c r="H56" s="233">
         <f t="shared" ref="H56:H58" si="18">H47-H50</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I56" s="233">
         <f t="shared" ref="I56:I58" si="19">I47-I50</f>
         <v>20</v>
       </c>
-      <c r="J56" s="266"/>
+      <c r="J56" s="268"/>
       <c r="K56" s="233">
         <f t="shared" ref="K56:K58" si="20">K47-K50</f>
         <v>25</v>
       </c>
       <c r="L56" s="233">
         <f>SUM(F56:H56)</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M56" s="233">
         <f t="shared" ref="M56:M58" si="21">M47-M50</f>
@@ -24383,9 +24391,9 @@
         <f t="shared" ref="N56:N58" si="22">N47-N50</f>
         <v>136</v>
       </c>
-      <c r="O56" s="274"/>
-    </row>
-    <row r="57" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O56" s="276"/>
+    </row>
+    <row r="57" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A57" s="239"/>
       <c r="B57" s="251"/>
       <c r="C57" s="241" t="s">
@@ -24406,13 +24414,13 @@
       </c>
       <c r="H57" s="233">
         <f t="shared" si="18"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I57" s="233">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="J57" s="268"/>
+      <c r="J57" s="270"/>
       <c r="K57" s="233">
         <f t="shared" si="20"/>
         <v>18</v>
@@ -24428,9 +24436,9 @@
         <f t="shared" si="22"/>
         <v>95</v>
       </c>
-      <c r="O57" s="274"/>
-    </row>
-    <row r="58" s="182" customFormat="1" ht="19.9" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O57" s="276"/>
+    </row>
+    <row r="58" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A58" s="239"/>
       <c r="B58" s="251"/>
       <c r="C58" s="243" t="s">
@@ -24451,13 +24459,13 @@
       </c>
       <c r="H58" s="233">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" s="233">
         <f t="shared" si="19"/>
         <v>11</v>
       </c>
-      <c r="J58" s="268"/>
+      <c r="J58" s="270"/>
       <c r="K58" s="233">
         <f t="shared" si="20"/>
         <v>7</v>
@@ -24473,15 +24481,15 @@
         <f t="shared" si="22"/>
         <v>41</v>
       </c>
-      <c r="O58" s="274"/>
-    </row>
-    <row r="59" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" collapsed="1" spans="1:15">
+      <c r="O58" s="276"/>
+    </row>
+    <row r="59" s="182" customFormat="1" ht="19.9" customHeight="1" outlineLevel="1" spans="1:15">
       <c r="A59" s="239"/>
       <c r="B59" s="251"/>
-      <c r="C59" s="257" t="s">
+      <c r="C59" s="258" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="258" t="s">
+      <c r="D59" s="259" t="s">
         <v>64</v>
       </c>
       <c r="E59" s="233">
@@ -24499,7 +24507,7 @@
       <c r="I59" s="233">
         <v>48</v>
       </c>
-      <c r="J59" s="266"/>
+      <c r="J59" s="268"/>
       <c r="K59" s="233">
         <v>32</v>
       </c>
@@ -24512,9 +24520,9 @@
       <c r="N59" s="233">
         <v>48</v>
       </c>
-      <c r="O59" s="274"/>
-    </row>
-    <row r="60" s="182" customFormat="1" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O59" s="276"/>
+    </row>
+    <row r="60" s="182" customFormat="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A60" s="239"/>
       <c r="B60" s="251"/>
       <c r="C60" s="241" t="s">
@@ -24532,7 +24540,7 @@
       <c r="I60" s="233">
         <v>28</v>
       </c>
-      <c r="J60" s="268"/>
+      <c r="J60" s="270"/>
       <c r="K60" s="233"/>
       <c r="L60" s="233">
         <v>27</v>
@@ -24543,9 +24551,9 @@
       <c r="N60" s="233">
         <v>28</v>
       </c>
-      <c r="O60" s="275"/>
-    </row>
-    <row r="61" s="182" customFormat="1" hidden="1" customHeight="1" outlineLevel="2" spans="1:15">
+      <c r="O60" s="277"/>
+    </row>
+    <row r="61" s="182" customFormat="1" customHeight="1" outlineLevel="2" spans="1:15">
       <c r="A61" s="239"/>
       <c r="B61" s="251"/>
       <c r="C61" s="243" t="s">
@@ -24563,7 +24571,7 @@
       <c r="I61" s="233">
         <v>20</v>
       </c>
-      <c r="J61" s="268"/>
+      <c r="J61" s="270"/>
       <c r="K61" s="233"/>
       <c r="L61" s="233">
         <v>39</v>
@@ -24574,7 +24582,7 @@
       <c r="N61" s="233">
         <v>20</v>
       </c>
-      <c r="O61" s="275"/>
+      <c r="O61" s="277"/>
     </row>
     <row r="62" s="218" customFormat="1" ht="27.95" customHeight="1" collapsed="1" spans="1:16">
       <c r="A62" s="227" t="s">
@@ -24592,266 +24600,266 @@
       <c r="K62" s="227"/>
       <c r="L62" s="227"/>
       <c r="M62" s="227"/>
-      <c r="N62" s="265"/>
-      <c r="O62" s="265"/>
-      <c r="P62" s="276"/>
+      <c r="N62" s="267"/>
+      <c r="O62" s="267"/>
+      <c r="P62" s="278"/>
     </row>
     <row r="63" s="219" customFormat="1" ht="18" hidden="1" outlineLevel="2" spans="1:16">
-      <c r="A63" s="259" t="s">
+      <c r="A63" s="261" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="260"/>
-      <c r="C63" s="261" t="s">
+      <c r="B63" s="262"/>
+      <c r="C63" s="263" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="261"/>
-      <c r="E63" s="262"/>
-      <c r="F63" s="261"/>
-      <c r="G63" s="261"/>
-      <c r="H63" s="261"/>
-      <c r="I63" s="261"/>
-      <c r="J63" s="261"/>
-      <c r="K63" s="261"/>
-      <c r="L63" s="261"/>
-      <c r="M63" s="261"/>
-      <c r="N63" s="261"/>
-      <c r="O63" s="277"/>
-      <c r="P63" s="278"/>
+      <c r="D63" s="263"/>
+      <c r="E63" s="264"/>
+      <c r="F63" s="263"/>
+      <c r="G63" s="263"/>
+      <c r="H63" s="263"/>
+      <c r="I63" s="263"/>
+      <c r="J63" s="263"/>
+      <c r="K63" s="263"/>
+      <c r="L63" s="263"/>
+      <c r="M63" s="263"/>
+      <c r="N63" s="263"/>
+      <c r="O63" s="279"/>
+      <c r="P63" s="280"/>
     </row>
     <row r="64" s="219" customFormat="1" ht="22.5" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A64" s="259" t="s">
+      <c r="A64" s="261" t="s">
         <v>91</v>
       </c>
-      <c r="B64" s="260"/>
-      <c r="C64" s="263" t="s">
+      <c r="B64" s="262"/>
+      <c r="C64" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="263"/>
-      <c r="E64" s="264"/>
-      <c r="F64" s="263"/>
-      <c r="G64" s="263"/>
-      <c r="H64" s="263"/>
-      <c r="I64" s="263"/>
-      <c r="J64" s="263"/>
-      <c r="K64" s="263"/>
-      <c r="L64" s="263"/>
-      <c r="M64" s="263"/>
-      <c r="N64" s="263"/>
-      <c r="O64" s="279"/>
-      <c r="P64" s="278"/>
+      <c r="D64" s="265"/>
+      <c r="E64" s="266"/>
+      <c r="F64" s="265"/>
+      <c r="G64" s="265"/>
+      <c r="H64" s="265"/>
+      <c r="I64" s="265"/>
+      <c r="J64" s="265"/>
+      <c r="K64" s="265"/>
+      <c r="L64" s="265"/>
+      <c r="M64" s="265"/>
+      <c r="N64" s="265"/>
+      <c r="O64" s="281"/>
+      <c r="P64" s="280"/>
     </row>
     <row r="65" s="219" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A65" s="280" t="s">
+      <c r="A65" s="282" t="s">
         <v>93</v>
       </c>
-      <c r="B65" s="281"/>
-      <c r="C65" s="282" t="s">
+      <c r="B65" s="283"/>
+      <c r="C65" s="284" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="282"/>
-      <c r="E65" s="282"/>
-      <c r="F65" s="282"/>
-      <c r="G65" s="282"/>
-      <c r="H65" s="282"/>
-      <c r="I65" s="282"/>
-      <c r="J65" s="282"/>
-      <c r="K65" s="282"/>
-      <c r="L65" s="282"/>
-      <c r="M65" s="282"/>
-      <c r="N65" s="282"/>
-      <c r="O65" s="295"/>
-      <c r="P65" s="278"/>
+      <c r="D65" s="284"/>
+      <c r="E65" s="284"/>
+      <c r="F65" s="284"/>
+      <c r="G65" s="284"/>
+      <c r="H65" s="284"/>
+      <c r="I65" s="284"/>
+      <c r="J65" s="284"/>
+      <c r="K65" s="284"/>
+      <c r="L65" s="284"/>
+      <c r="M65" s="284"/>
+      <c r="N65" s="284"/>
+      <c r="O65" s="297"/>
+      <c r="P65" s="280"/>
     </row>
     <row r="66" s="219" customFormat="1" ht="18" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A66" s="280" t="s">
+      <c r="A66" s="282" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="281"/>
-      <c r="C66" s="282" t="s">
+      <c r="B66" s="283"/>
+      <c r="C66" s="284" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="282"/>
-      <c r="E66" s="282"/>
-      <c r="F66" s="282"/>
-      <c r="G66" s="282"/>
-      <c r="H66" s="282"/>
-      <c r="I66" s="282"/>
-      <c r="J66" s="282"/>
-      <c r="K66" s="282"/>
-      <c r="L66" s="282"/>
-      <c r="M66" s="282"/>
-      <c r="N66" s="282"/>
-      <c r="O66" s="295"/>
-      <c r="P66" s="278"/>
+      <c r="D66" s="284"/>
+      <c r="E66" s="284"/>
+      <c r="F66" s="284"/>
+      <c r="G66" s="284"/>
+      <c r="H66" s="284"/>
+      <c r="I66" s="284"/>
+      <c r="J66" s="284"/>
+      <c r="K66" s="284"/>
+      <c r="L66" s="284"/>
+      <c r="M66" s="284"/>
+      <c r="N66" s="284"/>
+      <c r="O66" s="297"/>
+      <c r="P66" s="280"/>
     </row>
     <row r="67" s="219" customFormat="1" hidden="1" outlineLevel="2" spans="1:16">
-      <c r="A67" s="280" t="s">
+      <c r="A67" s="282" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="281"/>
-      <c r="C67" s="283" t="s">
+      <c r="B67" s="283"/>
+      <c r="C67" s="285" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="283"/>
-      <c r="E67" s="283"/>
-      <c r="F67" s="283"/>
-      <c r="G67" s="283"/>
-      <c r="H67" s="283"/>
-      <c r="I67" s="283"/>
-      <c r="J67" s="283"/>
-      <c r="K67" s="283"/>
-      <c r="L67" s="283"/>
-      <c r="M67" s="283"/>
-      <c r="N67" s="283"/>
-      <c r="O67" s="296"/>
-      <c r="P67" s="278"/>
+      <c r="D67" s="285"/>
+      <c r="E67" s="285"/>
+      <c r="F67" s="285"/>
+      <c r="G67" s="285"/>
+      <c r="H67" s="285"/>
+      <c r="I67" s="285"/>
+      <c r="J67" s="285"/>
+      <c r="K67" s="285"/>
+      <c r="L67" s="285"/>
+      <c r="M67" s="285"/>
+      <c r="N67" s="285"/>
+      <c r="O67" s="298"/>
+      <c r="P67" s="280"/>
     </row>
     <row r="68" s="219" customFormat="1" ht="45.6" hidden="1" customHeight="1" outlineLevel="2" spans="1:16">
-      <c r="A68" s="280" t="s">
+      <c r="A68" s="282" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="281"/>
-      <c r="C68" s="284" t="s">
+      <c r="B68" s="283"/>
+      <c r="C68" s="286" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="284"/>
-      <c r="E68" s="284"/>
-      <c r="F68" s="284"/>
-      <c r="G68" s="284"/>
-      <c r="H68" s="284"/>
-      <c r="I68" s="284"/>
-      <c r="J68" s="284"/>
-      <c r="K68" s="284"/>
-      <c r="L68" s="284"/>
-      <c r="M68" s="284"/>
-      <c r="N68" s="284"/>
-      <c r="O68" s="297"/>
-      <c r="P68" s="278"/>
+      <c r="D68" s="286"/>
+      <c r="E68" s="286"/>
+      <c r="F68" s="286"/>
+      <c r="G68" s="286"/>
+      <c r="H68" s="286"/>
+      <c r="I68" s="286"/>
+      <c r="J68" s="286"/>
+      <c r="K68" s="286"/>
+      <c r="L68" s="286"/>
+      <c r="M68" s="286"/>
+      <c r="N68" s="286"/>
+      <c r="O68" s="299"/>
+      <c r="P68" s="280"/>
     </row>
     <row r="69" s="218" customFormat="1" ht="23.25" customHeight="1" spans="1:15">
-      <c r="A69" s="285" t="s">
+      <c r="A69" s="287" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="285"/>
-      <c r="C69" s="286" t="str">
+      <c r="B69" s="287"/>
+      <c r="C69" s="288" t="str">
         <f>"本月故障 "&amp;H4&amp;" 起"</f>
         <v>本月故障 0 起</v>
       </c>
-      <c r="D69" s="287"/>
-      <c r="E69" s="287"/>
-      <c r="F69" s="287"/>
-      <c r="G69" s="287"/>
-      <c r="H69" s="287"/>
-      <c r="I69" s="287"/>
-      <c r="J69" s="287"/>
-      <c r="K69" s="287"/>
-      <c r="L69" s="287"/>
-      <c r="M69" s="287"/>
-      <c r="N69" s="287"/>
-      <c r="O69" s="287"/>
+      <c r="D69" s="289"/>
+      <c r="E69" s="289"/>
+      <c r="F69" s="289"/>
+      <c r="G69" s="289"/>
+      <c r="H69" s="289"/>
+      <c r="I69" s="289"/>
+      <c r="J69" s="289"/>
+      <c r="K69" s="289"/>
+      <c r="L69" s="289"/>
+      <c r="M69" s="289"/>
+      <c r="N69" s="289"/>
+      <c r="O69" s="289"/>
     </row>
     <row r="70" s="218" customFormat="1" ht="23.25" customHeight="1" spans="1:15">
-      <c r="A70" s="288" t="s">
+      <c r="A70" s="290" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="289"/>
-      <c r="C70" s="289"/>
-      <c r="D70" s="289"/>
-      <c r="E70" s="289"/>
-      <c r="F70" s="289"/>
-      <c r="G70" s="289"/>
-      <c r="H70" s="289"/>
-      <c r="I70" s="289"/>
-      <c r="J70" s="289"/>
-      <c r="K70" s="289"/>
-      <c r="L70" s="289"/>
-      <c r="M70" s="289"/>
-      <c r="N70" s="289"/>
-      <c r="O70" s="298"/>
+      <c r="B70" s="291"/>
+      <c r="C70" s="291"/>
+      <c r="D70" s="291"/>
+      <c r="E70" s="291"/>
+      <c r="F70" s="291"/>
+      <c r="G70" s="291"/>
+      <c r="H70" s="291"/>
+      <c r="I70" s="291"/>
+      <c r="J70" s="291"/>
+      <c r="K70" s="291"/>
+      <c r="L70" s="291"/>
+      <c r="M70" s="291"/>
+      <c r="N70" s="291"/>
+      <c r="O70" s="300"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="290" t="s">
+      <c r="A71" s="292" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="291"/>
-      <c r="C71" s="292" t="s">
+      <c r="B71" s="293"/>
+      <c r="C71" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="292"/>
-      <c r="E71" s="293"/>
-      <c r="F71" s="293"/>
-      <c r="G71" s="293"/>
-      <c r="H71" s="293"/>
-      <c r="I71" s="293"/>
-      <c r="J71" s="293"/>
-      <c r="K71" s="293"/>
-      <c r="L71" s="293"/>
-      <c r="M71" s="293"/>
-      <c r="N71" s="293"/>
-      <c r="O71" s="293"/>
+      <c r="D71" s="294"/>
+      <c r="E71" s="295"/>
+      <c r="F71" s="295"/>
+      <c r="G71" s="295"/>
+      <c r="H71" s="295"/>
+      <c r="I71" s="295"/>
+      <c r="J71" s="295"/>
+      <c r="K71" s="295"/>
+      <c r="L71" s="295"/>
+      <c r="M71" s="295"/>
+      <c r="N71" s="295"/>
+      <c r="O71" s="295"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="290" t="s">
+      <c r="A72" s="292" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="291"/>
-      <c r="C72" s="292" t="s">
+      <c r="B72" s="293"/>
+      <c r="C72" s="294" t="s">
         <v>105</v>
       </c>
-      <c r="D72" s="292"/>
-      <c r="E72" s="293"/>
-      <c r="F72" s="293"/>
-      <c r="G72" s="293"/>
-      <c r="H72" s="293"/>
-      <c r="I72" s="293"/>
-      <c r="J72" s="293"/>
-      <c r="K72" s="293"/>
-      <c r="L72" s="293"/>
-      <c r="M72" s="293"/>
-      <c r="N72" s="293"/>
-      <c r="O72" s="293"/>
+      <c r="D72" s="294"/>
+      <c r="E72" s="295"/>
+      <c r="F72" s="295"/>
+      <c r="G72" s="295"/>
+      <c r="H72" s="295"/>
+      <c r="I72" s="295"/>
+      <c r="J72" s="295"/>
+      <c r="K72" s="295"/>
+      <c r="L72" s="295"/>
+      <c r="M72" s="295"/>
+      <c r="N72" s="295"/>
+      <c r="O72" s="295"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="290" t="s">
+      <c r="A73" s="292" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="291"/>
-      <c r="C73" s="292" t="s">
+      <c r="B73" s="293"/>
+      <c r="C73" s="294" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="292"/>
-      <c r="E73" s="293"/>
-      <c r="F73" s="293"/>
-      <c r="G73" s="293"/>
-      <c r="H73" s="293"/>
-      <c r="I73" s="293"/>
-      <c r="J73" s="293"/>
-      <c r="K73" s="293"/>
-      <c r="L73" s="293"/>
-      <c r="M73" s="293"/>
-      <c r="N73" s="293"/>
-      <c r="O73" s="293"/>
+      <c r="D73" s="294"/>
+      <c r="E73" s="295"/>
+      <c r="F73" s="295"/>
+      <c r="G73" s="295"/>
+      <c r="H73" s="295"/>
+      <c r="I73" s="295"/>
+      <c r="J73" s="295"/>
+      <c r="K73" s="295"/>
+      <c r="L73" s="295"/>
+      <c r="M73" s="295"/>
+      <c r="N73" s="295"/>
+      <c r="O73" s="295"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:15">
-      <c r="A74" s="290" t="s">
+      <c r="A74" s="292" t="s">
         <v>108</v>
       </c>
-      <c r="B74" s="291"/>
-      <c r="C74" s="286" t="s">
+      <c r="B74" s="293"/>
+      <c r="C74" s="288" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="294"/>
-      <c r="E74" s="287"/>
-      <c r="F74" s="287"/>
-      <c r="G74" s="287"/>
-      <c r="H74" s="287"/>
-      <c r="I74" s="287"/>
-      <c r="J74" s="287"/>
-      <c r="K74" s="287"/>
-      <c r="L74" s="287"/>
-      <c r="M74" s="287"/>
-      <c r="N74" s="287"/>
-      <c r="O74" s="287"/>
+      <c r="D74" s="296"/>
+      <c r="E74" s="289"/>
+      <c r="F74" s="289"/>
+      <c r="G74" s="289"/>
+      <c r="H74" s="289"/>
+      <c r="I74" s="289"/>
+      <c r="J74" s="289"/>
+      <c r="K74" s="289"/>
+      <c r="L74" s="289"/>
+      <c r="M74" s="289"/>
+      <c r="N74" s="289"/>
+      <c r="O74" s="289"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -24911,17 +24919,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="183" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" style="183" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="5.125" style="183" customWidth="1" collapsed="1"/>
-    <col min="6" max="14" width="4.5" style="183" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="4.875" style="183" collapsed="1"/>
-    <col min="16" max="20" width="3.75" style="183" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="4.25" style="183" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8" style="183" customWidth="1" collapsed="1"/>
-    <col min="23" max="34" width="4.875" style="183" collapsed="1"/>
-    <col min="35" max="46" width="4.875" style="181" collapsed="1"/>
-    <col min="47" max="16384" width="4.875" style="183" collapsed="1"/>
+    <col min="1" max="1" width="13.25" style="183" customWidth="1"/>
+    <col min="2" max="2" width="21" style="183" customWidth="1"/>
+    <col min="3" max="5" width="5.125" style="183" customWidth="1"/>
+    <col min="6" max="14" width="4.5" style="183" customWidth="1"/>
+    <col min="15" max="15" width="4.875" style="183"/>
+    <col min="16" max="20" width="3.75" style="183" customWidth="1"/>
+    <col min="21" max="21" width="4.25" style="183" customWidth="1"/>
+    <col min="22" max="22" width="8" style="183" customWidth="1"/>
+    <col min="23" max="34" width="4.875" style="183"/>
+    <col min="35" max="46" width="4.875" style="181"/>
+    <col min="47" max="16384" width="4.875" style="183"/>
   </cols>
   <sheetData>
     <row r="1" s="180" customFormat="1" ht="35.25" customHeight="1" spans="1:36">
